--- a/resources/acronyms.xlsx
+++ b/resources/acronyms.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreas/projects/g2sq/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41695949-252A-554F-B078-FF69E322F75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{41695949-252A-554F-B078-FF69E322F75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32102139-5CDA-4CDC-8C79-6DCA5B37DA1A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="12580" xr2:uid="{5F610E7D-516F-4D0E-9C99-25E102E12365}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>acronym</t>
   </si>
@@ -130,23 +134,29 @@
     <t>Enumeration Area</t>
   </si>
   <si>
+    <t>MICS</t>
+  </si>
+  <si>
     <t>Multiple Indicator Cluster Surveys</t>
   </si>
   <si>
-    <t>MICS</t>
-  </si>
-  <si>
     <t>DHS</t>
   </si>
   <si>
     <t>Demographic and Health Surveys</t>
+  </si>
+  <si>
+    <t>CAFE</t>
+  </si>
+  <si>
+    <t>Computer Assisted Field Entry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,18 +501,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCDB658-A979-4647-B5F9-26FDB723BC77}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -518,7 +528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -526,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -534,7 +544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -542,7 +552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -550,7 +560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -558,7 +568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -566,7 +576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -574,7 +584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -582,7 +592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -590,7 +600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -598,7 +608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -606,7 +616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -614,7 +624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -622,7 +632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -630,20 +640,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/resources/acronyms.xlsx
+++ b/resources/acronyms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreas/projects/g2sq/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{41695949-252A-554F-B078-FF69E322F75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32102139-5CDA-4CDC-8C79-6DCA5B37DA1A}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{41695949-252A-554F-B078-FF69E322F75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECD2A4BF-D4C5-4583-A9B8-9AAE05798ADD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="12580" xr2:uid="{5F610E7D-516F-4D0E-9C99-25E102E12365}"/>
   </bookViews>
@@ -47,13 +47,13 @@
     <t>LSMS</t>
   </si>
   <si>
-    <t>Living Standard Measurement Survey</t>
+    <t>Living Standards Measurement Survey</t>
   </si>
   <si>
     <t>CAPI</t>
   </si>
   <si>
-    <t>Computer Assissted Personal Interviewing</t>
+    <t>Computer Assisted Personal Interviewing</t>
   </si>
   <si>
     <t>NSO</t>
@@ -77,7 +77,7 @@
     <t>CATI</t>
   </si>
   <si>
-    <t>Computer Assissted Telephone Interviewing</t>
+    <t>Computer Assisted Telephone Interviewing</t>
   </si>
   <si>
     <t>PAPI</t>
@@ -113,7 +113,7 @@
     <t>ToC</t>
   </si>
   <si>
-    <t>Table of Content</t>
+    <t>Table of Contents</t>
   </si>
   <si>
     <t>HIES</t>
@@ -125,7 +125,7 @@
     <t>CAWI</t>
   </si>
   <si>
-    <t>Computer Assissted Web Interviewing</t>
+    <t>Computer Assisted Web Interviewing</t>
   </si>
   <si>
     <t>EA</t>
@@ -504,7 +504,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
